--- a/trained_models_old_clean/MLP/seeds/results_table.xlsx
+++ b/trained_models_old_clean/MLP/seeds/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3607523232070666, 'beta_2': 0.10070371237772593, 'epsilon': 0.35944995747380615, 'learning_rate': 'constant', 'momentum': 0.2937987394525844, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.11552222031708181}</t>
+          <t>{'beta_1': 0.5652792503232922, 'beta_2': 0.41981330293618097, 'epsilon': 0.7277454915754739, 'learning_rate': 'constant', 'momentum': 0.21878330983125793, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7178526672195303}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.90625</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
+          <t>{'beta_1': 0.9542478120828, 'beta_2': 0.5530798961168548, 'epsilon': 0.9357463476708033, 'learning_rate': 'invscaling', 'momentum': 0.9236518593869899, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19815949993946502}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.953125</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4471927022822535, 'beta_2': 0.3907445764112232, 'epsilon': 0.05197778219303738, 'learning_rate': 'constant', 'momentum': 0.5423217530554092, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.590799840377505}</t>
+          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.921875</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="5">
@@ -612,7 +612,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5284109891018522, 'beta_2': 0.30414191798303086, 'epsilon': 0.9969642890773448, 'learning_rate': 'invscaling', 'momentum': 0.5973029395241212, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.005189627256445006}</t>
+          <t>{'beta_1': 0.562460812878451, 'beta_2': 0.17146917581155258, 'epsilon': 0.7937364809538997, 'learning_rate': 'constant', 'momentum': 0.8038453618794522, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3267755759449551}</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.004044058262057914, 'beta_2': 0.2692099545241596, 'epsilon': 0.4100816459563625, 'learning_rate': 'constant', 'momentum': 0.8221177331942455, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.511318982546456}</t>
+          <t>{'beta_1': 0.11069316714792313, 'beta_2': 0.27895318215123505, 'epsilon': 0.5521879955057969, 'learning_rate': 'constant', 'momentum': 0.6238667252688536, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.010585739586393417}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.90625</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9860054985757924, 'beta_2': 0.32708399264862975, 'epsilon': 0.7027269929350685, 'learning_rate': 'adaptive', 'momentum': 0.8552913450076486, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.23282429241813685}</t>
+          <t>{'beta_1': 0.6508527181139733, 'beta_2': 0.38159210878680017, 'epsilon': 0.33820372777845686, 'learning_rate': 'invscaling', 'momentum': 0.6141750023638414, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1992281464241792}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.828125</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11069316714792313, 'beta_2': 0.27895318215123505, 'epsilon': 0.5521879955057969, 'learning_rate': 'constant', 'momentum': 0.6238667252688536, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.010585739586393417}</t>
+          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9375</v>
+        <v>0.984375</v>
       </c>
     </row>
     <row r="9">
@@ -756,7 +756,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
+          <t>{'beta_1': 0.35532987330372157, 'beta_2': 0.8199044149280549, 'epsilon': 0.5030941477966999, 'learning_rate': 'adaptive', 'momentum': 0.4892254993109375, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.45311076628522495}</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.824955554146974, 'beta_2': 0.29643507613087744, 'epsilon': 0.14667350486551128, 'learning_rate': 'invscaling', 'momentum': 0.3648573130917908, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9598271493776032}</t>
+          <t>{'beta_1': 0.40608697736016275, 'beta_2': 0.9526096625874722, 'epsilon': 0.08420386789004532, 'learning_rate': 'adaptive', 'momentum': 0.1853129195793668, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5199849899533098}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.921875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
+          <t>{'beta_1': 0.8196020295351898, 'beta_2': 0.20518456766423368, 'epsilon': 0.6542754517681015, 'learning_rate': 'invscaling', 'momentum': 0.11380819802357156, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7569353251210548}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.921875</v>
+        <v>0.953125</v>
       </c>
     </row>
     <row r="12">
@@ -864,7 +864,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
+          <t>{'beta_1': 0.5904743154531562, 'beta_2': 0.9207973478039624, 'epsilon': 0.8044585917235958, 'learning_rate': 'constant', 'momentum': 0.7119905766783191, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.49236140669088413}</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3759651167322159, 'beta_2': 0.06171729066506716, 'epsilon': 0.38508415698973375, 'learning_rate': 'constant', 'momentum': 0.9881924181265406, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7921537410440993}</t>
+          <t>{'beta_1': 0.004044058262057914, 'beta_2': 0.2692099545241596, 'epsilon': 0.4100816459563625, 'learning_rate': 'constant', 'momentum': 0.8221177331942455, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.511318982546456}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
+          <t>{'beta_1': 0.9166219467725615, 'beta_2': 0.7569765358478867, 'epsilon': 0.061239381816285944, 'learning_rate': 'constant', 'momentum': 0.7915164945083926, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9786304632912902}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9375</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3424289445517873, 'beta_2': 0.08391295033087916, 'epsilon': 0.9385760775082453, 'learning_rate': 'adaptive', 'momentum': 0.8216719344295681, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6823265790625589}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.859375</v>
+        <v>0.953125</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
+          <t>{'beta_1': 0.5694768312146749, 'beta_2': 0.7450179703622319, 'epsilon': 0.3526833540570616, 'learning_rate': 'invscaling', 'momentum': 0.9160233696334701, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6827553511108365}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.75</v>
+        <v>0.953125</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11370282374947131, 'beta_2': 0.6304944160294864, 'epsilon': 0.13268218376992516, 'learning_rate': 'constant', 'momentum': 0.3742961833209161, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23780724253903884}</t>
+          <t>{'beta_1': 0.44874854048015367, 'beta_2': 0.9775923574922963, 'epsilon': 0.11608570770278201, 'learning_rate': 'adaptive', 'momentum': 0.8137978197024772, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.24979627565497808}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8971896673718566, 'beta_2': 0.32115145792335104, 'epsilon': 0.4737106274513581, 'learning_rate': 'adaptive', 'momentum': 0.15274234220713012, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17693548523244518}</t>
+          <t>{'beta_1': 0.24955315384928356, 'beta_2': 0.010154777764660419, 'epsilon': 0.8302355151440006, 'learning_rate': 'constant', 'momentum': 0.23125495297968846, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9454309703916057}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9375</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6917796472506498, 'beta_2': 0.5660348527523685, 'epsilon': 0.26512410144850596, 'learning_rate': 'adaptive', 'momentum': 0.09394051075844168, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9292961975762141}</t>
+          <t>{'beta_1': 0.19137944247298086, 'beta_2': 0.661512060052164, 'epsilon': 0.8504721144442051, 'learning_rate': 'invscaling', 'momentum': 0.44309818564492065, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9551260344725638}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.953125</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.05100201162723169, 'beta_2': 0.33093761141243355, 'epsilon': 0.32000596022432076, 'learning_rate': 'adaptive', 'momentum': 0.33828139189745543, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8664586694893915}</t>
+          <t>{'beta_1': 0.3558969243603615, 'beta_2': 0.7563726480312566, 'epsilon': 0.9853427339385873, 'learning_rate': 'invscaling', 'momentum': 0.9534053465033483, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17012610063108624}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.96875</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.15351287622984, 'beta_2': 0.44404922963498833, 'epsilon': 0.49460123084919705, 'learning_rate': 'constant', 'momentum': 0.581856616157203, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5713805768779951}</t>
+          <t>{'beta_1': 0.6292719678840203, 'beta_2': 0.7743630713990834, 'epsilon': 0.4046364487929541, 'learning_rate': 'invscaling', 'momentum': 0.0015945706042945762, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7791109940193555}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.921875</v>
+        <v>0.890625</v>
       </c>
     </row>
   </sheetData>
